--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1859.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1859.xlsx
@@ -357,7 +357,7 @@
         <v>0.4920721631923433</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>2.891601919344173</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1859.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1859.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.1871674884938458</v>
+        <v>1.444118618965149</v>
       </c>
       <c r="B1">
-        <v>0.2674075036240309</v>
+        <v>2.730725526809692</v>
       </c>
       <c r="C1">
-        <v>0.4920721631923433</v>
+        <v>3.263580083847046</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3.126994371414185</v>
       </c>
       <c r="E1">
-        <v>2.891601919344173</v>
+        <v>2.373293399810791</v>
       </c>
     </row>
   </sheetData>
